--- a/biology/Botanique/Guacamaya_superba/Guacamaya_superba.xlsx
+++ b/biology/Botanique/Guacamaya_superba/Guacamaya_superba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guacamaya
 Guacamaya superba, unique représentant du genre Guacamaya, est une espèce de plantes monocotylédones de la famille des Rapateaceae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guacamaya superba est originaire de la région du rio negro, le long de la frontière entre la Colombie (Vaupés et Guainía) et le Venezuela (État d'Amazonas).
 </t>
@@ -543,9 +557,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été sélectionnée pour l'affiche de la COP16 2024 pour la biodiversité à Cali[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été sélectionnée pour l'affiche de la COP16 2024 pour la biodiversité à Cali.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Guacamaya et l'espèce Guacamaya superba ont été décrits en 1958 par le botaniste américain Bassett Maguire (1904-1991)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Guacamaya et l'espèce Guacamaya superba ont été décrits en 1958 par le botaniste américain Bassett Maguire (1904-1991),.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Guacamaya, reprend le nom vernaculaire local donné à cette plante qui rappelle par les couleurs vives de ses fleurs, celles de l'Ara rouge également appelé localement par le même nom de Guacamaya[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Guacamaya, reprend le nom vernaculaire local donné à cette plante qui rappelle par les couleurs vives de ses fleurs, celles de l'Ara rouge également appelé localement par le même nom de Guacamaya.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en + la) Bassett Maguire et John J. Wurdack, « The botany of the Guayana Highland - Part III », Memoirs of the New York Botanical Garden, New York, vol. 10, no 1,‎ 1er juillet 1958, p. 1-156 (ISSN 0077-8931, e-ISSN 2662-2858, lire en ligne, consulté le 27 mars 2024).</t>
         </is>
